--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -423,10 +423,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
@@ -492,6 +492,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>차니</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0x5a801efb2000003</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,42 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,83 +71,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,101 +372,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="23.875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>이시현2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0xb48836fb708003c</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>이시현</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0x914927c6b84003e</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>차니</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0x5a801efb2000003</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4"/>
     </row>
-    <row r="5"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,59 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,20 +54,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,44 +418,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col width="23.875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>이시현</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0x914927c6b84003e</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>이시현2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0xb48836fb708003c</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,42 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,83 +71,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,82 +372,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="23.875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>이시현</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0x914927c6b84003e</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>이시현2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0xb48836fb708003c</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -26,6 +26,10 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>adfsdfas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -373,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -404,6 +408,11 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3"/>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,63 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>adfsdfas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,20 +54,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,46 +418,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col width="23.875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="2"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -456,7 +456,42 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>이시현2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0xb48836fb708003c</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>이시현</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0x914927c6b84003e</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -459,16 +459,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이시현2</t>
+          <t>이시현</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0xb48836fb708003c</t>
+          <t>0x914927c6b84003e</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -477,16 +477,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이시현</t>
+          <t>이시현2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0x914927c6b84003e</t>
+          <t>0xb48836fb708003c</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -54,10 +54,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -423,55 +430,67 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col width="23.875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>money</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>이시현</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>0x914927c6b84003e</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -486,10 +505,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80000</v>
+        <v>1125.5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,42 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,89 +75,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,97 +381,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E3" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9" customWidth="1" style="1" min="6" max="16384"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>이시현</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>0x914927c6b84003e</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>이시현2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0xb48836fb708003c</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1125.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,62 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,26 +54,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,57 +427,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col width="9" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9" customWidth="1" style="1" min="6" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,42 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,92 +78,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,56 +385,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A2:E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9" customWidth="1" style="1" min="6" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,62 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11925" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,26 +54,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,43 +437,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col width="9" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9" customWidth="1" style="1" min="6" max="8"/>
+    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>이시현</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0x914927c6b84003e</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>이시현2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0xb48836fb708003c</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -442,13 +442,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="23.875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -490,54 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>이시현</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0x914927c6b84003e</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>이시현2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0xb48836fb708003c</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -54,25 +54,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -442,54 +439,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="23.875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
     <col width="9" customWidth="1" style="1" min="3" max="4"/>
     <col width="10" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9" customWidth="1" style="1" min="6" max="8"/>
-    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="6" max="10"/>
+    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>exp</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>money</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -439,13 +439,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="23.875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -487,7 +487,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -439,13 +439,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="23.875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -487,6 +487,30 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>이시현</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0x914927c6b84003e</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
